--- a/PA2_Excel/PA2 100 Zeilen test_IT_experte.xlsx
+++ b/PA2_Excel/PA2 100 Zeilen test_IT_experte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niclas\PA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niclas\PA2\Abgabe\PA2_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B27797-CF30-4ECA-B66D-E21B07A842D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C381E-A1BB-49FD-8F11-5E8B3C5CA810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E5BFBFAF-256E-4046-9FBB-7AA012427B0E}"/>
+    <workbookView xWindow="36105" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{E5BFBFAF-256E-4046-9FBB-7AA012427B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t xml:space="preserve">File </t>
   </si>
@@ -90,9 +90,6 @@
     <t>Unbekannt</t>
   </si>
   <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -102,14 +99,46 @@
     <t>Fehleranzahl</t>
   </si>
   <si>
-    <t>Spaltenanzahl erschwert die einsicht der Daten</t>
+    <t xml:space="preserve">Zwischen den Terminen, zu geringe Zeit für genauere Analysen </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Encoding: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In den Headern, bei den feldern mit fix length in DB kann es zu Umbrüchen führen: Ã¤</t>
+    </r>
+  </si>
+  <si>
+    <t>#NA</t>
+  </si>
+  <si>
+    <t>Brocken lines/Shifted lines</t>
+  </si>
+  <si>
+    <t>Anführungszeichen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +148,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,13 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -169,10 +208,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D97A46-0C89-4C7F-A975-D0E2705529A9}" name="Table13" displayName="Table13" ref="A1:G4" totalsRowShown="0">
   <autoFilter ref="A1:G4" xr:uid="{84D97A46-0C89-4C7F-A975-D0E2705529A9}"/>
@@ -190,8 +225,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FC3503-E83E-4711-BC7F-7C45D979FC76}" name="Table145" displayName="Table145" ref="A1:C33" totalsRowShown="0">
-  <autoFilter ref="A1:C33" xr:uid="{76FC3503-E83E-4711-BC7F-7C45D979FC76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FC3503-E83E-4711-BC7F-7C45D979FC76}" name="Table145" displayName="Table145" ref="A1:C34" totalsRowShown="0">
+  <autoFilter ref="A1:C34" xr:uid="{76FC3503-E83E-4711-BC7F-7C45D979FC76}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="B1:B34"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="9" xr3:uid="{941EF171-4911-4962-9700-5F94D54F6F5A}" name="Zeile des Fehlers"/>
     <tableColumn id="3" xr3:uid="{73EE4942-7FA0-4906-9626-30600869879F}" name="Art des Fehlers"/>
@@ -512,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE26128-8709-4E2D-AB2E-B49D616E8DF6}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -549,15 +587,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>3.2060185185185191E-3</v>
+        <v>1.8171296296296297E-3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -565,27 +603,29 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1.1145833333333334E-2</v>
+        <v>6.9791666666666674E-3</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -605,17 +645,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E1B205-C8F1-4AA9-8EBB-5DBCE8C3A5B4}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,90 +671,122 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -725,18 +797,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E906FF03-B17B-46B5-940E-7926ED4EAC56}">
           <x14:formula1>
             <xm:f>Sheet4!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BE2354E-6B53-483A-BC26-57F7A2DFAA03}">
-          <x14:formula1>
-            <xm:f>Sheet4!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B14:B34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -746,7 +812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE8FDC-7E43-46AC-8944-EB17807DAA75}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -756,7 +822,7 @@
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,6 +834,17 @@
       </c>
       <c r="C1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -778,19 +855,13 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18AE603-8A44-4B66-BA10-B52791D6C5BE}">
           <x14:formula1>
             <xm:f>Sheet4!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC0AA0C3-A529-4A54-A502-549BFD1CDCED}">
-          <x14:formula1>
-            <xm:f>Sheet4!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -802,7 +873,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -852,12 +923,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,15 +1061,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C6CF1D-5FC6-4BB9-B3EA-63A27E1F4948}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9DC2D9-DF15-401A-BE25-C5DD9CFF7E24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1025,10 +1097,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9DC2D9-DF15-401A-BE25-C5DD9CFF7E24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C6CF1D-5FC6-4BB9-B3EA-63A27E1F4948}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>